--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.2283617010375</v>
+        <v>9995.443978506477</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.2283617010375</v>
+        <v>9995.443978506477</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77374.27261777032</v>
+        <v>5168698.673855705</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77374.27261777032</v>
+        <v>5168698.673855705</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189701332.837363</v>
+        <v>44972643.21275426</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13415.09850742214</v>
+        <v>1176039.213346269</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25077.89841181326</v>
+        <v>2046298.803495092</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36722.48132276933</v>
+        <v>2916558.393643915</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48618.24006850376</v>
+        <v>3785945.738465759</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60513.99881423819</v>
+        <v>4655333.083287602</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72409.75755997261</v>
+        <v>5524720.428109446</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84305.51630570703</v>
+        <v>6394107.772931284</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96201.27505144148</v>
+        <v>7263495.117753123</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108105.0057520978</v>
+        <v>8131844.66496731</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120010.0280391978</v>
+        <v>9000451.237883797</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131915.0503262978</v>
+        <v>9869057.810800282</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>143820.0726133979</v>
+        <v>10737664.38371678</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>155725.0949004979</v>
+        <v>11606270.95663328</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>167630.1171875978</v>
+        <v>12474877.52954978</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>179535.1394746979</v>
+        <v>13343484.10246628</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>177</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
